--- a/학습자료/단답형/국어_기출의지혜_복합어.xlsx
+++ b/학습자료/단답형/국어_기출의지혜_복합어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,17 +458,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>비지땀(분석)</t>
+          <t>눈물</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>비지/땀, 합성어, 고유어/고유어</t>
+          <t>합성어, 통사적 합성어</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -480,17 +480,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>사랑채(분석)</t>
+          <t>작은집</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>사랑/채, 합성어, 한자어/고유어</t>
+          <t>합성어, 통사적 합성어</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -502,17 +502,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>쌍동밤(분석)</t>
+          <t>가로지르다</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>쌍동/밤, 합성어, 한자어/고유어</t>
+          <t>합성어, 통사적 합성어</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -524,17 +524,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>장작불(분석)</t>
+          <t>못나다</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>장작/불, 합성어, 한자어/고유어</t>
+          <t>합성어, 통사적 합성어</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -546,17 +546,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>돌보다(분석)</t>
+          <t>값나가다</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>돌/보다, 합성어, 비통사적합성어</t>
+          <t>합성어, 통사적 합성어</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -568,17 +568,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>강추위(분석)</t>
+          <t>낯설다</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>강/추위, 파생어</t>
+          <t>합성어, 통사적 합성어</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -590,17 +590,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>날강도(분석)</t>
+          <t>본받다</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>날/강도, 파생어</t>
+          <t>합성어, 통사적 합성어</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -612,17 +612,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>짓누르다(분석)</t>
+          <t>이리저리</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>짓/누르다, 파생어</t>
+          <t>합성어, 통사적 합성어</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -634,17 +634,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>온갓(분석)</t>
+          <t>곧잘</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>온/갓, 합성어</t>
+          <t>합성어, 통사적 합성어</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -656,17 +656,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>게을러빠지다(분석)</t>
+          <t>돌아가다</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>게으르/어/빠지다, 합성어</t>
+          <t>합성어, 통사적 합성어</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -678,17 +678,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>끝내(분석)</t>
+          <t>벗어나다</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>끝/내, 파생어</t>
+          <t>합성어, 통사적 합성어</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -700,17 +700,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>참꽃(분석)</t>
+          <t>검버섯</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>참/꽃, 파생어</t>
+          <t>합성어, 비통사적 합성어</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -722,17 +722,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>한겨울(분석)</t>
+          <t>오르내리다</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>한/겨울, 파생어</t>
+          <t>합성어, 비통사적 합성어</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -744,17 +744,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>들개(분석)</t>
+          <t>먹거리</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>들/개, 파생어</t>
+          <t>합성어, 비통사적 합성어</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -766,17 +766,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>움직이다(분석)</t>
+          <t>우짖다</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>움직/이다, 파생어</t>
+          <t>합성어, 비통사적 합성어</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -788,17 +788,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>한낮(분석)</t>
+          <t>뛰놀다</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>한/낮, 파생어</t>
+          <t>합성어, 비통사적 합성어</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -810,17 +810,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>어느덧(분석)</t>
+          <t>볼록거울</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>어느/덧, 합성어</t>
+          <t>합성어, 비통사적 합성어</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -832,17 +832,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>들쑤시다(분석)</t>
+          <t>뾰족구두</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>들/쑤시다, 파생어</t>
+          <t>합성어, 비통사적 합성어</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -854,17 +854,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>마음껏(분석)</t>
+          <t>산들바람</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>마음/껏, 파생어</t>
+          <t>합성어, 비통사적 합성어</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -876,17 +876,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>불호령(분석)</t>
+          <t>피땀</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>불/호령, 파생어</t>
+          <t>합성어, 통사적 합성어</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -898,17 +898,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>여남은(분석)</t>
+          <t>열쇠</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>열/남다, 합성어</t>
+          <t>합성어, 통사적 합성어</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -920,17 +920,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>값어치(분석)</t>
+          <t>길짐승</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>값/어치, 파생어</t>
+          <t>합성어, 통사적 합성어</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -942,17 +942,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>바가지(분석)</t>
+          <t>날짐승</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>박/아지, 파생어</t>
+          <t>합성어, 통사적 합성어</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -964,17 +964,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>마중(분석)</t>
+          <t>첫사랑</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>맞/웅, 파생어</t>
+          <t>합성어, 통사적 합성어</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -986,17 +986,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>곧잘(분석)</t>
+          <t>눈발</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>곧/잘, 합성어</t>
+          <t>합성어, 통사적 합성어</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1008,17 +1008,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>인간(분석)</t>
+          <t>서릿발</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>인/간, 합성어</t>
+          <t>합성어, 통사적 합성어</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1030,17 +1030,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>한국인(분석)</t>
+          <t>생겨나다</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>한국/인, 파생어</t>
+          <t>합성어, 통사적 합성어</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1052,17 +1052,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>얽매다(분석)</t>
+          <t>먹을거리</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>얽/매다, 합성어</t>
+          <t>합성어, 통사적 합성어</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1074,20 +1074,1934 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>까막까치(분석)</t>
+          <t>우리나라</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>까막/까치, 합성어, 까마귀/까치</t>
+          <t>합성어, 통사적 합성어</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2일차</t>
+          <t>3일차</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>우리말</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>합성어, 통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>우리글</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>합성어, 통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>날고기</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>강아지</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>잡아먹히다</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>되돌리다</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>건강하다</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>공부하다</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>유지하다</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>풋사랑</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>단호박</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>단팥죽</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>바가지</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>끗발</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>화장발</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>늦더위</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>늦가을</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>값어치</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>감발</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>합성어, 비통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>꺾쇠</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>합성어, 비통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>얽매다</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>합성어, 비통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>검붉다</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>합성어, 비통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>덮밥</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>합성어, 비통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>부슬비</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>합성어, 비통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>높푸르다</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>합성어, 비통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>스며들다</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>합성어, 통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>새빨갛다</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>짙푸르다</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>합성어, 비통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>젊은이</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>합성어, 통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>가로막다</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>합성어, 통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>새해</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>합성어, 통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>힘들다</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>합성어, 통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>접칼</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>합성어, 비통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>돌아오다</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>합성어, 통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>굳세다</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>합성어, 비통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>밤낮</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>합성어, 통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>굶주리다</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>합성어, 비통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>빛나다</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>맛나다</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>별나다</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>보살피다</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>합성어, 비통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>잠보</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>점쟁이</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>일꾼</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>덮개</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>넓이</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>조용하</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>군것질</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>선생님</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>먹히다</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>거멓다</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>맨손</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>군소리</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>시누이</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>빗나가다</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>새파랗다</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>개살구</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>헛웃음</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>낚시질</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>지우개</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>건어물</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>손짓</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>합성어, 통사적 합성어</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>비지땀</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>사랑채</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>쌍동밤</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>장작불</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>돌보다</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>강추위</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>날강도</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>짓누르다</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>온갓</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>게을러빠지다</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>끝내</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>참꽃</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>한겨울</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>들개</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>움직이다</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>한낮</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>어느덧</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>들쑤시다</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>마음껏</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>불호령</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>여남은</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>마중</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>인간</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>한국인</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>까막까치</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>합성어</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>3일차</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
         <is>
           <t>복합어</t>
         </is>

--- a/학습자료/단답형/국어_기출의지혜_복합어.xlsx
+++ b/학습자료/단답형/국어_기출의지혜_복합어.xlsx
@@ -458,12 +458,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>눈물</t>
+          <t>눈물(합성어/파생어)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +480,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>작은집</t>
+          <t>작은집(합성어/파생어)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -502,12 +502,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>가로지르다</t>
+          <t>가로지르다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -524,12 +524,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>못나다</t>
+          <t>못나다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -546,12 +546,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>값나가다</t>
+          <t>값나가다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -568,12 +568,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>낯설다</t>
+          <t>낯설다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -590,12 +590,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>본받다</t>
+          <t>본받다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -612,12 +612,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>이리저리</t>
+          <t>이리저리(합성어/파생어)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -634,12 +634,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>곧잘</t>
+          <t>곧잘(합성어/파생어)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -656,12 +656,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>돌아가다</t>
+          <t>돌아가다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -678,12 +678,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>벗어나다</t>
+          <t>벗어나다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -700,12 +700,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>검버섯</t>
+          <t>검버섯(합성어/파생어)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -722,12 +722,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>오르내리다</t>
+          <t>오르내리다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -744,12 +744,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>먹거리</t>
+          <t>먹거리(합성어/파생어)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -766,12 +766,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>우짖다</t>
+          <t>우짖다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -788,12 +788,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>뛰놀다</t>
+          <t>뛰놀다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -810,12 +810,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>볼록거울</t>
+          <t>볼록거울(합성어/파생어)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -832,12 +832,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>뾰족구두</t>
+          <t>뾰족구두(합성어/파생어)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -854,12 +854,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>산들바람</t>
+          <t>산들바람(합성어/파생어)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -876,12 +876,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>피땀</t>
+          <t>피땀(합성어/파생어)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -898,12 +898,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>열쇠</t>
+          <t>열쇠(합성어/파생어)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -920,12 +920,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>길짐승</t>
+          <t>길짐승(합성어/파생어)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -942,12 +942,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>날짐승</t>
+          <t>날짐승(합성어/파생어)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -964,12 +964,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>첫사랑</t>
+          <t>첫사랑(합성어/파생어)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -986,12 +986,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>눈발</t>
+          <t>눈발(합성어/파생어)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1008,12 +1008,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>서릿발</t>
+          <t>서릿발(합성어/파생어)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1030,12 +1030,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>생겨나다</t>
+          <t>생겨나다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1052,12 +1052,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>먹을거리</t>
+          <t>먹을거리(합성어/파생어)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1074,12 +1074,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>우리나라</t>
+          <t>우리나라(합성어/파생어)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1096,12 +1096,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>우리말</t>
+          <t>우리말(합성어/파생어)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1118,12 +1118,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>우리글</t>
+          <t>우리글(합성어/파생어)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1140,12 +1140,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>날고기</t>
+          <t>날고기(합성어/파생어)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1162,12 +1162,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>강아지</t>
+          <t>강아지(합성어/파생어)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1184,12 +1184,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>잡아먹히다</t>
+          <t>잡아먹히다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1206,12 +1206,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>되돌리다</t>
+          <t>되돌리다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1228,12 +1228,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>건강하다</t>
+          <t>건강하다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1250,12 +1250,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>공부하다</t>
+          <t>공부하다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1272,12 +1272,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>유지하다</t>
+          <t>유지하다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1294,12 +1294,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>풋사랑</t>
+          <t>풋사랑(합성어/파생어)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1316,12 +1316,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>단호박</t>
+          <t>단호박(합성어/파생어)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1338,12 +1338,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>단팥죽</t>
+          <t>단팥죽(합성어/파생어)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1360,12 +1360,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>바가지</t>
+          <t>바가지(합성어/파생어)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1382,12 +1382,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>끗발</t>
+          <t>끗발(합성어/파생어)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1404,12 +1404,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>화장발</t>
+          <t>화장발(합성어/파생어)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1426,12 +1426,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>늦더위</t>
+          <t>늦더위(합성어/파생어)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1448,12 +1448,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>늦가을</t>
+          <t>늦가을(합성어/파생어)</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1470,12 +1470,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>값어치</t>
+          <t>값어치(합성어/파생어)</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1492,12 +1492,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>감발</t>
+          <t>감발(합성어/파생어)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1514,12 +1514,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>꺾쇠</t>
+          <t>꺾쇠(합성어/파생어)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1536,12 +1536,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>얽매다</t>
+          <t>얽매다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1558,12 +1558,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>검붉다</t>
+          <t>검붉다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1580,12 +1580,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>덮밥</t>
+          <t>덮밥(합성어/파생어)</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1602,12 +1602,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>부슬비</t>
+          <t>부슬비(합성어/파생어)</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1624,12 +1624,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>높푸르다</t>
+          <t>높푸르다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1646,12 +1646,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>스며들다</t>
+          <t>스며들다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1668,12 +1668,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>새빨갛다</t>
+          <t>새빨갛다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1690,12 +1690,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>짙푸르다</t>
+          <t>짙푸르다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1712,12 +1712,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>젊은이</t>
+          <t>젊은이(합성어/파생어)</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1734,12 +1734,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>가로막다</t>
+          <t>가로막다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1756,12 +1756,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>새해</t>
+          <t>새해(합성어/파생어)</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1778,12 +1778,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>힘들다</t>
+          <t>힘들다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1800,12 +1800,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>접칼</t>
+          <t>접칼(합성어/파생어)</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1822,12 +1822,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>돌아오다</t>
+          <t>돌아오다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1844,12 +1844,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>굳세다</t>
+          <t>굳세다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1866,12 +1866,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>밤낮</t>
+          <t>밤낮(합성어/파생어)</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1888,12 +1888,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>굶주리다</t>
+          <t>굶주리다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1910,12 +1910,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>빛나다</t>
+          <t>빛나다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1932,12 +1932,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>맛나다</t>
+          <t>맛나다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1954,12 +1954,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>별나다</t>
+          <t>별나다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1976,12 +1976,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>보살피다</t>
+          <t>보살피다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>합성어, 비통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1998,12 +1998,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>잠보</t>
+          <t>잠보(합성어/파생어)</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2020,12 +2020,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>점쟁이</t>
+          <t>점쟁이(합성어/파생어)</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2042,12 +2042,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>일꾼</t>
+          <t>일꾼(합성어/파생어)</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2064,12 +2064,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>덮개</t>
+          <t>덮개(합성어/파생어)</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2086,12 +2086,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>넓이</t>
+          <t>넓이(합성어/파생어)</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2108,12 +2108,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>조용하</t>
+          <t>조용하(합성어/파생어)</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2130,12 +2130,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>군것질</t>
+          <t>군것질(합성어/파생어)</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2152,12 +2152,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>선생님</t>
+          <t>선생님(합성어/파생어)</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2174,12 +2174,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>먹히다</t>
+          <t>먹히다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2196,12 +2196,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>거멓다</t>
+          <t>거멓다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2218,12 +2218,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>맨손</t>
+          <t>맨손(합성어/파생어)</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2240,12 +2240,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>군소리</t>
+          <t>군소리(합성어/파생어)</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2262,12 +2262,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>시누이</t>
+          <t>시누이(합성어/파생어)</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2284,12 +2284,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>빗나가다</t>
+          <t>빗나가다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2306,12 +2306,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>새파랗다</t>
+          <t>새파랗다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2328,12 +2328,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>개살구</t>
+          <t>개살구(합성어/파생어)</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2350,12 +2350,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>헛웃음</t>
+          <t>헛웃음(합성어/파생어)</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2372,12 +2372,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>낚시질</t>
+          <t>낚시질(합성어/파생어)</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2394,12 +2394,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>지우개</t>
+          <t>지우개(합성어/파생어)</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2416,12 +2416,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>건어물</t>
+          <t>건어물(합성어/파생어)</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2438,12 +2438,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>손짓</t>
+          <t>손짓(합성어/파생어)</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>합성어, 통사적 합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2460,12 +2460,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>비지땀</t>
+          <t>비지땀(합성어/파생어)</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2482,12 +2482,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>사랑채</t>
+          <t>사랑채(합성어/파생어)</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2504,12 +2504,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>쌍동밤</t>
+          <t>쌍동밤(합성어/파생어)</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2526,12 +2526,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>장작불</t>
+          <t>장작불(합성어/파생어)</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2548,12 +2548,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>돌보다</t>
+          <t>돌보다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2570,12 +2570,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>강추위</t>
+          <t>강추위(합성어/파생어)</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2592,12 +2592,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>날강도</t>
+          <t>날강도(합성어/파생어)</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2614,12 +2614,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>짓누르다</t>
+          <t>짓누르다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2636,12 +2636,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>온갓</t>
+          <t>온갓(합성어/파생어)</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2658,12 +2658,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>게을러빠지다</t>
+          <t>게을러빠지다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2680,12 +2680,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>끝내</t>
+          <t>끝내(합성어/파생어)</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2702,12 +2702,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>참꽃</t>
+          <t>참꽃(합성어/파생어)</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2724,12 +2724,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>한겨울</t>
+          <t>한겨울(합성어/파생어)</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2746,12 +2746,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>들개</t>
+          <t>들개(합성어/파생어)</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2768,12 +2768,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>움직이다</t>
+          <t>움직이다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2790,12 +2790,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>한낮</t>
+          <t>한낮(합성어/파생어)</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2812,12 +2812,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>어느덧</t>
+          <t>어느덧(합성어/파생어)</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2834,12 +2834,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>들쑤시다</t>
+          <t>들쑤시다(합성어/파생어)</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2856,12 +2856,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>마음껏</t>
+          <t>마음껏(합성어/파생어)</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2878,12 +2878,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>불호령</t>
+          <t>불호령(합성어/파생어)</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2900,12 +2900,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>여남은</t>
+          <t>여남은(합성어/파생어)</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2922,12 +2922,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>마중</t>
+          <t>마중(합성어/파생어)</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2944,12 +2944,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>인간</t>
+          <t>인간(합성어/파생어)</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2966,12 +2966,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>한국인</t>
+          <t>한국인(합성어/파생어)</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>파생어</t>
+          <t>2, 파생어</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2988,12 +2988,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>까막까치</t>
+          <t>까막까치(합성어/파생어)</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>합성어</t>
+          <t>1, 합성어</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
